--- a/VendorList_for_Upload.xlsx
+++ b/VendorList_for_Upload.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nappiah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blessings\Documents\Projects\PASL\Apps\eProc\DigiProc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F4D1E0-F1A6-4E61-AC2C-33045B579600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8FF4F06A-6FFF-48EC-9056-80FA6566369F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All_Vendor_List" sheetId="1" r:id="rId1"/>
     <sheet name="Approved_List" sheetId="2" r:id="rId2"/>
+    <sheet name="Vendors" sheetId="3" r:id="rId3"/>
+    <sheet name="VendorType" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="431">
   <si>
     <t>LIST OF PAN-AFRICAN APPROVED VENDORS – UPDATED FOR 2021</t>
   </si>
@@ -1253,12 +1254,103 @@
   <si>
     <t>0277700778 /0241977969</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>VendorType</t>
+  </si>
+  <si>
+    <t>CompanyRegistrationNo</t>
+  </si>
+  <si>
+    <t>IncorporationDate</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>NameOfOwner</t>
+  </si>
+  <si>
+    <t>CompanyContact</t>
+  </si>
+  <si>
+    <t>CompanyWebsite</t>
+  </si>
+  <si>
+    <t>CompanyEmailAddress</t>
+  </si>
+  <si>
+    <t>Sole Proprietorship</t>
+  </si>
+  <si>
+    <t>ALFRED SELORM BETEPE</t>
+  </si>
+  <si>
+    <t>selorm@seloartgroup.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Vendor Type</t>
+  </si>
+  <si>
+    <t>Kennex Care</t>
+  </si>
+  <si>
+    <t>jas@hammondafrica.org</t>
+  </si>
+  <si>
+    <t>Jas Hammond</t>
+  </si>
+  <si>
+    <t>enquiries@iseeworks.com</t>
+  </si>
+  <si>
+    <t>kojokena@techdez.com</t>
+  </si>
+  <si>
+    <t>Kojo Kena</t>
+  </si>
+  <si>
+    <t>thelma@colourzone.com</t>
+  </si>
+  <si>
+    <t>Thelma Adiyiah-Kusi</t>
+  </si>
+  <si>
+    <t>Kojo Owusu Antwi</t>
+  </si>
+  <si>
+    <t>info@btlmarketinggh.com</t>
+  </si>
+  <si>
+    <t>daniel@thestorywell.com.gh</t>
+  </si>
+  <si>
+    <t>Daniel Adjokatcher</t>
+  </si>
+  <si>
+    <t>Shirley Acquah Harrison</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="00000000000"/>
+    <numFmt numFmtId="166" formatCode="0000000000"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,8 +1515,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1434,6 +1549,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1738,6 +1871,98 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1776,7 +2001,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\mmallet.PANAFRICANSL\Desktop\BRANDING - CORPORATE AFFAIRS\Pan African logo - EM (2).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCEA3B5-F4AE-4C10-9E53-D372867C7CE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CCEA3B5-F4AE-4C10-9E53-D372867C7CE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +2046,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="C:\Users\mmallet.PANAFRICANSL\Desktop\BRANDING - CORPORATE AFFAIRS\Pan African logo - EM (2).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A980E753-2A0A-4616-A035-0EBEF454FBFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A980E753-2A0A-4616-A035-0EBEF454FBFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,38 +2377,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CFD0C-9BD2-4FC0-9E48-86051D66855C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -2191,13 +2416,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -2237,7 +2462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
@@ -2261,7 +2486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
@@ -2269,7 +2494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -2285,17 +2510,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
@@ -2303,7 +2528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
@@ -2311,7 +2536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
@@ -2319,7 +2544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
@@ -2327,7 +2552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>34</v>
       </c>
@@ -2335,7 +2560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>36</v>
       </c>
@@ -2343,7 +2568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
@@ -2351,17 +2576,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>41</v>
       </c>
@@ -2369,7 +2594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>43</v>
       </c>
@@ -2377,17 +2602,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
@@ -2395,7 +2620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>48</v>
       </c>
@@ -2403,7 +2628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -2411,7 +2636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>52</v>
       </c>
@@ -2419,17 +2644,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -2437,7 +2662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>57</v>
       </c>
@@ -2445,7 +2670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>59</v>
       </c>
@@ -2453,7 +2678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>61</v>
       </c>
@@ -2461,7 +2686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>63</v>
       </c>
@@ -2469,17 +2694,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>66</v>
       </c>
@@ -2487,7 +2712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
@@ -2495,7 +2720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>70</v>
       </c>
@@ -2503,7 +2728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
@@ -2511,7 +2736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>74</v>
       </c>
@@ -2519,17 +2744,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>77</v>
       </c>
@@ -2537,7 +2762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>79</v>
       </c>
@@ -2545,7 +2770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>81</v>
       </c>
@@ -2553,7 +2778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>83</v>
       </c>
@@ -2561,7 +2786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>85</v>
       </c>
@@ -2569,7 +2794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>87</v>
       </c>
@@ -2577,7 +2802,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>89</v>
       </c>
@@ -2585,17 +2810,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>92</v>
       </c>
@@ -2603,17 +2828,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>95</v>
       </c>
@@ -2621,7 +2846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>97</v>
       </c>
@@ -2629,7 +2854,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>99</v>
       </c>
@@ -2637,7 +2862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>101</v>
       </c>
@@ -2645,7 +2870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>103</v>
       </c>
@@ -2653,7 +2878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>105</v>
       </c>
@@ -2661,7 +2886,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>107</v>
       </c>
@@ -2669,7 +2894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>109</v>
       </c>
@@ -2677,7 +2902,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>111</v>
       </c>
@@ -2685,7 +2910,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>113</v>
       </c>
@@ -2693,7 +2918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>115</v>
       </c>
@@ -2701,7 +2926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>59</v>
       </c>
@@ -2709,7 +2934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>117</v>
       </c>
@@ -2717,13 +2942,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>120</v>
       </c>
@@ -2731,7 +2956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>122</v>
       </c>
@@ -2739,7 +2964,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>124</v>
       </c>
@@ -2747,17 +2972,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>127</v>
       </c>
@@ -2765,7 +2990,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>115</v>
       </c>
@@ -2773,7 +2998,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>59</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>95</v>
       </c>
@@ -2789,7 +3014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>109</v>
       </c>
@@ -2797,17 +3022,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>131</v>
       </c>
@@ -2815,7 +3040,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>133</v>
       </c>
@@ -2823,7 +3048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>135</v>
       </c>
@@ -2831,7 +3056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>137</v>
       </c>
@@ -2839,17 +3064,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B96" s="15"/>
     </row>
-    <row r="97" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>140</v>
       </c>
@@ -2857,7 +3082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>142</v>
       </c>
@@ -2865,7 +3090,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>144</v>
       </c>
@@ -2873,17 +3098,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B101" s="15"/>
     </row>
-    <row r="102" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>147</v>
       </c>
@@ -2891,7 +3116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>149</v>
       </c>
@@ -2899,7 +3124,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>151</v>
       </c>
@@ -2907,7 +3132,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>153</v>
       </c>
@@ -2915,17 +3140,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B107" s="15"/>
     </row>
-    <row r="108" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>156</v>
       </c>
@@ -2933,7 +3158,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>158</v>
       </c>
@@ -2941,17 +3166,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B111" s="15"/>
     </row>
-    <row r="112" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>161</v>
       </c>
@@ -2959,17 +3184,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B114" s="15"/>
     </row>
-    <row r="115" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>163</v>
       </c>
@@ -2977,7 +3202,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>165</v>
       </c>
@@ -2985,7 +3210,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>167</v>
       </c>
@@ -2993,7 +3218,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>169</v>
       </c>
@@ -3001,7 +3226,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>59</v>
       </c>
@@ -3009,7 +3234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>171</v>
       </c>
@@ -3017,17 +3242,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="22"/>
     </row>
-    <row r="122" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B122" s="15"/>
     </row>
-    <row r="123" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>174</v>
       </c>
@@ -3035,7 +3260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>176</v>
       </c>
@@ -3043,7 +3268,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>178</v>
       </c>
@@ -3051,7 +3276,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>180</v>
       </c>
@@ -3059,7 +3284,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>182</v>
       </c>
@@ -3067,7 +3292,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19" t="s">
         <v>184</v>
       </c>
@@ -3075,7 +3300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>186</v>
       </c>
@@ -3083,7 +3308,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>188</v>
       </c>
@@ -3091,7 +3316,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>190</v>
       </c>
@@ -3099,7 +3324,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>192</v>
       </c>
@@ -3107,17 +3332,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16"/>
       <c r="B133" s="23"/>
     </row>
-    <row r="134" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B134" s="15"/>
     </row>
-    <row r="135" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>195</v>
       </c>
@@ -3125,7 +3350,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>197</v>
       </c>
@@ -3133,7 +3358,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>199</v>
       </c>
@@ -3141,7 +3366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>201</v>
       </c>
@@ -3149,7 +3374,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>203</v>
       </c>
@@ -3157,7 +3382,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>205</v>
       </c>
@@ -3165,13 +3390,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>207</v>
       </c>
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
         <v>208</v>
       </c>
@@ -3179,17 +3404,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="24"/>
       <c r="B143" s="25"/>
     </row>
-    <row r="144" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B144" s="26"/>
     </row>
-    <row r="145" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>211</v>
       </c>
@@ -3197,7 +3422,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>213</v>
       </c>
@@ -3205,7 +3430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>215</v>
       </c>
@@ -3213,17 +3438,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="27"/>
     </row>
-    <row r="149" spans="1:36" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>217</v>
       </c>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>218</v>
       </c>
@@ -3231,7 +3456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>220</v>
       </c>
@@ -3239,11 +3464,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>222</v>
       </c>
@@ -3283,7 +3508,7 @@
       <c r="AI153" s="29"/>
       <c r="AJ153" s="29"/>
     </row>
-    <row r="154" spans="1:36" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>223</v>
       </c>
@@ -3325,7 +3550,7 @@
       <c r="AI154"/>
       <c r="AJ154"/>
     </row>
-    <row r="155" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>10</v>
       </c>
@@ -3333,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>225</v>
       </c>
@@ -3341,7 +3566,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>227</v>
       </c>
@@ -3349,7 +3574,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>229</v>
       </c>
@@ -3357,7 +3582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>231</v>
       </c>
@@ -3365,7 +3590,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="16" t="s">
         <v>233</v>
       </c>
@@ -3373,17 +3598,17 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16"/>
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B162" s="26"/>
     </row>
-    <row r="163" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>236</v>
       </c>
@@ -3391,7 +3616,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>238</v>
       </c>
@@ -3399,7 +3624,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>240</v>
       </c>
@@ -3407,17 +3632,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16"/>
       <c r="B166" s="11"/>
     </row>
-    <row r="167" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B167" s="26"/>
     </row>
-    <row r="168" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>243</v>
       </c>
@@ -3425,7 +3650,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>245</v>
       </c>
@@ -3433,7 +3658,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="16" t="s">
         <v>247</v>
       </c>
@@ -3441,17 +3666,17 @@
         <v>248</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16"/>
       <c r="B171" s="27"/>
     </row>
-    <row r="172" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>249</v>
       </c>
       <c r="B172" s="28"/>
     </row>
-    <row r="173" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
         <v>250</v>
       </c>
@@ -3459,7 +3684,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
         <v>252</v>
       </c>
@@ -3467,7 +3692,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
         <v>254</v>
       </c>
@@ -3475,7 +3700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
         <v>256</v>
       </c>
@@ -3483,17 +3708,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="27"/>
     </row>
-    <row r="178" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B178" s="26"/>
     </row>
-    <row r="179" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>259</v>
       </c>
@@ -3501,7 +3726,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>261</v>
       </c>
@@ -3509,17 +3734,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="16"/>
       <c r="B181" s="11"/>
     </row>
-    <row r="182" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="35" t="s">
         <v>263</v>
       </c>
       <c r="B182" s="15"/>
     </row>
-    <row r="183" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>264</v>
       </c>
@@ -3527,17 +3752,17 @@
         <v>265</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
     </row>
-    <row r="185" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B185" s="15"/>
     </row>
-    <row r="186" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
         <v>267</v>
       </c>
@@ -3545,17 +3770,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14"/>
       <c r="B187" s="11"/>
     </row>
-    <row r="188" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B188" s="15"/>
     </row>
-    <row r="189" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>270</v>
       </c>
@@ -3563,7 +3788,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>272</v>
       </c>
@@ -3571,17 +3796,17 @@
         <v>273</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="14"/>
       <c r="B191" s="11"/>
     </row>
-    <row r="192" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B192" s="15"/>
     </row>
-    <row r="193" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>275</v>
       </c>
@@ -3589,17 +3814,17 @@
         <v>276</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="16"/>
       <c r="B194" s="11"/>
     </row>
-    <row r="195" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="35" t="s">
         <v>277</v>
       </c>
       <c r="B195" s="15"/>
     </row>
-    <row r="196" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
         <v>278</v>
       </c>
@@ -3607,7 +3832,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>280</v>
       </c>
@@ -3615,7 +3840,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>282</v>
       </c>
@@ -3623,7 +3848,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>284</v>
       </c>
@@ -3631,7 +3856,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>286</v>
       </c>
@@ -3639,7 +3864,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>288</v>
       </c>
@@ -3647,7 +3872,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>290</v>
       </c>
@@ -3655,17 +3880,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="35" t="s">
         <v>292</v>
       </c>
       <c r="B204" s="15"/>
     </row>
-    <row r="205" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>293</v>
       </c>
@@ -3673,17 +3898,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="36"/>
     </row>
-    <row r="207" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B207" s="15"/>
     </row>
-    <row r="208" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="37" t="s">
         <v>296</v>
       </c>
@@ -3691,7 +3916,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>298</v>
       </c>
@@ -3699,7 +3924,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="16" t="s">
         <v>300</v>
       </c>
@@ -3707,17 +3932,17 @@
         <v>301</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="16"/>
       <c r="B211" s="13"/>
     </row>
-    <row r="212" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B212" s="38"/>
     </row>
-    <row r="213" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>303</v>
       </c>
@@ -3725,7 +3950,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10" t="s">
         <v>305</v>
       </c>
@@ -3733,7 +3958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>307</v>
       </c>
@@ -3741,7 +3966,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
         <v>309</v>
       </c>
@@ -3749,7 +3974,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="s">
         <v>311</v>
       </c>
@@ -3757,7 +3982,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>313</v>
       </c>
@@ -3765,7 +3990,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
         <v>315</v>
       </c>
@@ -3773,7 +3998,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
         <v>317</v>
       </c>
@@ -3781,7 +4006,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10" t="s">
         <v>319</v>
       </c>
@@ -3789,7 +4014,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="37" t="s">
         <v>321</v>
       </c>
@@ -3797,7 +4022,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10" t="s">
         <v>323</v>
       </c>
@@ -3805,17 +4030,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="11"/>
     </row>
-    <row r="225" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B225" s="38"/>
     </row>
-    <row r="226" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>326</v>
       </c>
@@ -3823,7 +4048,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
         <v>328</v>
       </c>
@@ -3831,7 +4056,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
         <v>330</v>
       </c>
@@ -3839,17 +4064,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="23"/>
     </row>
-    <row r="230" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B230" s="38"/>
     </row>
-    <row r="231" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
         <v>333</v>
       </c>
@@ -3857,7 +4082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="37" t="s">
         <v>335</v>
       </c>
@@ -3865,7 +4090,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
         <v>337</v>
       </c>
@@ -3873,17 +4098,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10"/>
       <c r="B234" s="42"/>
     </row>
-    <row r="235" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B235" s="38"/>
     </row>
-    <row r="236" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>340</v>
       </c>
@@ -3891,7 +4116,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>342</v>
       </c>
@@ -3899,7 +4124,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
         <v>344</v>
       </c>
@@ -3907,17 +4132,17 @@
         <v>345</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
         <v>346</v>
       </c>
       <c r="B240" s="15"/>
     </row>
-    <row r="241" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
         <v>347</v>
       </c>
@@ -3925,7 +4150,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>349</v>
       </c>
@@ -3933,7 +4158,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
         <v>351</v>
       </c>
@@ -3941,17 +4166,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="20"/>
     </row>
-    <row r="245" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>353</v>
       </c>
       <c r="B245" s="15"/>
     </row>
-    <row r="246" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>354</v>
       </c>
@@ -3959,7 +4184,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>356</v>
       </c>
@@ -3967,7 +4192,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="248" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>358</v>
       </c>
@@ -3975,7 +4200,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="249" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>360</v>
       </c>
@@ -3983,7 +4208,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="250" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>362</v>
       </c>
@@ -3991,7 +4216,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="251" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>364</v>
       </c>
@@ -3999,7 +4224,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="252" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>366</v>
       </c>
@@ -4007,7 +4232,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="253" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>368</v>
       </c>
@@ -4015,7 +4240,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="254" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>370</v>
       </c>
@@ -4023,7 +4248,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>372</v>
       </c>
@@ -4031,7 +4256,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="256" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>374</v>
       </c>
@@ -4039,7 +4264,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="257" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>376</v>
       </c>
@@ -4047,7 +4272,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="258" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>378</v>
       </c>
@@ -4055,7 +4280,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="259" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>380</v>
       </c>
@@ -4063,7 +4288,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>382</v>
       </c>
@@ -4071,7 +4296,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="261" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>384</v>
       </c>
@@ -4079,17 +4304,17 @@
         <v>385</v>
       </c>
     </row>
-    <row r="262" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="43"/>
     </row>
-    <row r="263" spans="1:2" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="45" t="s">
         <v>386</v>
       </c>
       <c r="B263" s="46"/>
     </row>
-    <row r="264" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
         <v>387</v>
       </c>
@@ -4097,7 +4322,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
         <v>389</v>
       </c>
@@ -4105,17 +4330,17 @@
         <v>390</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="11"/>
     </row>
-    <row r="267" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>391</v>
       </c>
       <c r="B267" s="15"/>
     </row>
-    <row r="268" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="47" t="s">
         <v>392</v>
       </c>
@@ -4123,7 +4348,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="47" t="s">
         <v>394</v>
       </c>
@@ -4131,7 +4356,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="47" t="s">
         <v>396</v>
       </c>
@@ -4139,25 +4364,25 @@
         <v>397</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="48"/>
       <c r="B271" s="49"/>
     </row>
-    <row r="272" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="50"/>
       <c r="B272" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1" xr:uid="{3CD24E47-3CC1-4D36-A1D6-FF811321ADF0}"/>
-    <hyperlink ref="B210" r:id="rId2" display="info@akyeampongandco.com" xr:uid="{C4F3B89E-7370-4973-BC72-E67FEADEB750}"/>
-    <hyperlink ref="B53" r:id="rId3" xr:uid="{DACEA5C5-67F3-4A16-A072-90D7AF833B36}"/>
-    <hyperlink ref="B46" r:id="rId4" display="Tel:0244132433 / 0208211536 / 0246140524" xr:uid="{28A94AAF-1715-41CB-846E-C222514564EB}"/>
-    <hyperlink ref="B201" r:id="rId5" xr:uid="{B84A74CA-77BD-43EA-A205-19B748856257}"/>
-    <hyperlink ref="B243" r:id="rId6" xr:uid="{A7841EA1-CFBE-42EB-B086-4243BF9B5F92}"/>
-    <hyperlink ref="B72" r:id="rId7" display="Tel:0246 444 644 - Tabitha" xr:uid="{59A3692B-054D-4D13-B5B2-0FB1F248BA3F}"/>
-    <hyperlink ref="B88" r:id="rId8" display="Tel:0246 444 644 - Tabitha" xr:uid="{A23873F5-333B-4D3C-9B7A-65B0798C62D4}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{95D6EFCF-6AD8-40A1-B416-C5F20FB4DCBC}"/>
+    <hyperlink ref="B67" r:id="rId1"/>
+    <hyperlink ref="B210" r:id="rId2" display="info@akyeampongandco.com"/>
+    <hyperlink ref="B53" r:id="rId3"/>
+    <hyperlink ref="B46" r:id="rId4" display="Tel:0244132433 / 0208211536 / 0246140524"/>
+    <hyperlink ref="B201" r:id="rId5"/>
+    <hyperlink ref="B243" r:id="rId6"/>
+    <hyperlink ref="B72" r:id="rId7" display="Tel:0246 444 644 - Tabitha"/>
+    <hyperlink ref="B88" r:id="rId8" display="Tel:0246 444 644 - Tabitha"/>
+    <hyperlink ref="B14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
@@ -4170,38 +4395,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49021A46-F450-4212-A6C3-9CA5EA3A5AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="96.33203125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -4209,13 +4434,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -4223,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -4231,7 +4456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>8</v>
       </c>
@@ -4239,7 +4464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -4247,7 +4472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
         <v>14</v>
       </c>
@@ -4263,7 +4488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
@@ -4271,15 +4496,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
@@ -4287,7 +4512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>22</v>
       </c>
@@ -4295,7 +4520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>24</v>
       </c>
@@ -4303,17 +4528,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
@@ -4321,7 +4546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
@@ -4329,7 +4554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
@@ -4337,7 +4562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
@@ -4345,7 +4570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>34</v>
       </c>
@@ -4353,7 +4578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>36</v>
       </c>
@@ -4361,7 +4586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
@@ -4369,17 +4594,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>41</v>
       </c>
@@ -4387,7 +4612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>43</v>
       </c>
@@ -4395,17 +4620,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
@@ -4413,7 +4638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>48</v>
       </c>
@@ -4421,7 +4646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -4429,7 +4654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>52</v>
       </c>
@@ -4437,17 +4662,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4455,7 +4680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="54" t="s">
         <v>57</v>
       </c>
@@ -4463,7 +4688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
         <v>59</v>
       </c>
@@ -4471,7 +4696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>61</v>
       </c>
@@ -4479,7 +4704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>63</v>
       </c>
@@ -4487,17 +4712,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="54" t="s">
         <v>66</v>
       </c>
@@ -4505,7 +4730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="54" t="s">
         <v>68</v>
       </c>
@@ -4513,7 +4738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
         <v>70</v>
       </c>
@@ -4521,7 +4746,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
@@ -4529,7 +4754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>74</v>
       </c>
@@ -4537,17 +4762,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>77</v>
       </c>
@@ -4555,7 +4780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>79</v>
       </c>
@@ -4563,7 +4788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>81</v>
       </c>
@@ -4571,7 +4796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>83</v>
       </c>
@@ -4579,7 +4804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="54" t="s">
         <v>85</v>
       </c>
@@ -4587,7 +4812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>87</v>
       </c>
@@ -4595,7 +4820,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="54" t="s">
         <v>89</v>
       </c>
@@ -4603,17 +4828,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="54" t="s">
         <v>92</v>
       </c>
@@ -4621,17 +4846,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A65" s="54" t="s">
         <v>95</v>
       </c>
@@ -4639,7 +4864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="54" t="s">
         <v>97</v>
       </c>
@@ -4647,7 +4872,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="54" t="s">
         <v>99</v>
       </c>
@@ -4655,7 +4880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>101</v>
       </c>
@@ -4663,7 +4888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>103</v>
       </c>
@@ -4671,7 +4896,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="54" t="s">
         <v>105</v>
       </c>
@@ -4679,7 +4904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="54" t="s">
         <v>107</v>
       </c>
@@ -4687,7 +4912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="54" t="s">
         <v>109</v>
       </c>
@@ -4695,7 +4920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
         <v>111</v>
       </c>
@@ -4703,7 +4928,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>113</v>
       </c>
@@ -4711,7 +4936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>115</v>
       </c>
@@ -4719,7 +4944,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="54" t="s">
         <v>59</v>
       </c>
@@ -4727,7 +4952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>117</v>
       </c>
@@ -4735,13 +4960,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="54" t="s">
         <v>119</v>
       </c>
       <c r="B78" s="55"/>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>120</v>
       </c>
@@ -4749,7 +4974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>122</v>
       </c>
@@ -4757,17 +4982,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>127</v>
       </c>
@@ -4775,7 +5000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>115</v>
       </c>
@@ -4783,7 +5008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="54" t="s">
         <v>59</v>
       </c>
@@ -4791,7 +5016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>95</v>
       </c>
@@ -4799,7 +5024,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="54" t="s">
         <v>109</v>
       </c>
@@ -4807,17 +5032,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>131</v>
       </c>
@@ -4825,7 +5050,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>133</v>
       </c>
@@ -4833,7 +5058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>135</v>
       </c>
@@ -4841,7 +5066,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>137</v>
       </c>
@@ -4849,17 +5074,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B95" s="15"/>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>140</v>
       </c>
@@ -4867,7 +5092,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>142</v>
       </c>
@@ -4875,7 +5100,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>144</v>
       </c>
@@ -4883,17 +5108,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>147</v>
       </c>
@@ -4901,7 +5126,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="54" t="s">
         <v>149</v>
       </c>
@@ -4909,7 +5134,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>151</v>
       </c>
@@ -4917,7 +5142,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>153</v>
       </c>
@@ -4925,17 +5150,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B106" s="15"/>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>156</v>
       </c>
@@ -4943,7 +5168,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>158</v>
       </c>
@@ -4951,17 +5176,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>161</v>
       </c>
@@ -4969,17 +5194,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B113" s="15"/>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="54" t="s">
         <v>163</v>
       </c>
@@ -4987,7 +5212,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>165</v>
       </c>
@@ -4995,7 +5220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>167</v>
       </c>
@@ -5003,7 +5228,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>169</v>
       </c>
@@ -5011,7 +5236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="54" t="s">
         <v>59</v>
       </c>
@@ -5019,7 +5244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>171</v>
       </c>
@@ -5027,17 +5252,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="22"/>
     </row>
-    <row r="121" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>174</v>
       </c>
@@ -5045,7 +5270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>176</v>
       </c>
@@ -5053,7 +5278,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>178</v>
       </c>
@@ -5061,7 +5286,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>180</v>
       </c>
@@ -5069,7 +5294,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>182</v>
       </c>
@@ -5077,7 +5302,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>184</v>
       </c>
@@ -5085,7 +5310,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>186</v>
       </c>
@@ -5093,7 +5318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>188</v>
       </c>
@@ -5101,7 +5326,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>190</v>
       </c>
@@ -5109,7 +5334,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>192</v>
       </c>
@@ -5117,17 +5342,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="16"/>
       <c r="B132" s="23"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B133" s="15"/>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>195</v>
       </c>
@@ -5135,7 +5360,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>197</v>
       </c>
@@ -5143,7 +5368,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>199</v>
       </c>
@@ -5151,7 +5376,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>201</v>
       </c>
@@ -5159,7 +5384,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>203</v>
       </c>
@@ -5167,7 +5392,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>205</v>
       </c>
@@ -5175,13 +5400,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>207</v>
       </c>
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
         <v>208</v>
       </c>
@@ -5189,17 +5414,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="24"/>
       <c r="B142" s="25"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B143" s="26"/>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>211</v>
       </c>
@@ -5207,7 +5432,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>213</v>
       </c>
@@ -5215,7 +5440,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>215</v>
       </c>
@@ -5223,17 +5448,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="27"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>217</v>
       </c>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>218</v>
       </c>
@@ -5241,7 +5466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A150" s="54" t="s">
         <v>220</v>
       </c>
@@ -5249,17 +5474,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B152" s="26"/>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>223</v>
       </c>
@@ -5267,7 +5492,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>10</v>
       </c>
@@ -5275,7 +5500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>225</v>
       </c>
@@ -5283,7 +5508,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>227</v>
       </c>
@@ -5291,7 +5516,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>229</v>
       </c>
@@ -5299,7 +5524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>231</v>
       </c>
@@ -5307,7 +5532,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
         <v>233</v>
       </c>
@@ -5315,17 +5540,17 @@
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="16"/>
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="60" t="s">
         <v>235</v>
       </c>
       <c r="B161" s="61"/>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="62" t="s">
         <v>236</v>
       </c>
@@ -5333,7 +5558,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>238</v>
       </c>
@@ -5341,7 +5566,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>240</v>
       </c>
@@ -5349,17 +5574,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A165" s="16"/>
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B166" s="26"/>
     </row>
-    <row r="167" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>243</v>
       </c>
@@ -5367,7 +5592,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>245</v>
       </c>
@@ -5375,7 +5600,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A169" s="16" t="s">
         <v>247</v>
       </c>
@@ -5383,17 +5608,17 @@
         <v>248</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A170" s="16"/>
       <c r="B170" s="27"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>249</v>
       </c>
       <c r="B171" s="28"/>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
         <v>250</v>
       </c>
@@ -5401,7 +5626,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
         <v>252</v>
       </c>
@@ -5409,7 +5634,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
         <v>254</v>
       </c>
@@ -5417,7 +5642,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
         <v>256</v>
       </c>
@@ -5425,17 +5650,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="27"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B177" s="26"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>259</v>
       </c>
@@ -5443,7 +5668,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>261</v>
       </c>
@@ -5451,17 +5676,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A180" s="16"/>
       <c r="B180" s="11"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="35" t="s">
         <v>263</v>
       </c>
       <c r="B181" s="15"/>
     </row>
-    <row r="182" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>264</v>
       </c>
@@ -5469,17 +5694,17 @@
         <v>265</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B184" s="15"/>
     </row>
-    <row r="185" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>267</v>
       </c>
@@ -5487,17 +5712,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="11"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B187" s="15"/>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>270</v>
       </c>
@@ -5505,7 +5730,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>272</v>
       </c>
@@ -5513,17 +5738,17 @@
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A190" s="14"/>
       <c r="B190" s="11"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B191" s="15"/>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>275</v>
       </c>
@@ -5531,17 +5756,17 @@
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A193" s="16"/>
       <c r="B193" s="11"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="35" t="s">
         <v>277</v>
       </c>
       <c r="B194" s="15"/>
     </row>
-    <row r="195" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>278</v>
       </c>
@@ -5549,7 +5774,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>280</v>
       </c>
@@ -5557,7 +5782,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A197" s="54" t="s">
         <v>282</v>
       </c>
@@ -5565,7 +5790,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>284</v>
       </c>
@@ -5573,7 +5798,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A199" s="54" t="s">
         <v>286</v>
       </c>
@@ -5581,7 +5806,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>288</v>
       </c>
@@ -5589,7 +5814,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>290</v>
       </c>
@@ -5597,17 +5822,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="35" t="s">
         <v>292</v>
       </c>
       <c r="B203" s="15"/>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>293</v>
       </c>
@@ -5615,17 +5840,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="36"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B206" s="15"/>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A207" s="37" t="s">
         <v>296</v>
       </c>
@@ -5633,7 +5858,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>298</v>
       </c>
@@ -5641,7 +5866,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A209" s="16" t="s">
         <v>300</v>
       </c>
@@ -5649,17 +5874,17 @@
         <v>301</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A210" s="16"/>
       <c r="B210" s="13"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B211" s="38"/>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>303</v>
       </c>
@@ -5667,7 +5892,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A213" s="54" t="s">
         <v>305</v>
       </c>
@@ -5675,7 +5900,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>307</v>
       </c>
@@ -5683,7 +5908,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A215" s="10" t="s">
         <v>309</v>
       </c>
@@ -5691,7 +5916,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
         <v>311</v>
       </c>
@@ -5699,7 +5924,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="s">
         <v>313</v>
       </c>
@@ -5707,7 +5932,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>315</v>
       </c>
@@ -5715,7 +5940,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
         <v>317</v>
       </c>
@@ -5723,7 +5948,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
         <v>319</v>
       </c>
@@ -5731,7 +5956,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A221" s="37" t="s">
         <v>321</v>
       </c>
@@ -5739,7 +5964,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>323</v>
       </c>
@@ -5747,17 +5972,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="11"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B224" s="38"/>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
         <v>326</v>
       </c>
@@ -5765,7 +5990,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>328</v>
       </c>
@@ -5773,7 +5998,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
         <v>330</v>
       </c>
@@ -5781,17 +6006,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="23"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B229" s="38"/>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A230" s="10" t="s">
         <v>333</v>
       </c>
@@ -5799,7 +6024,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A231" s="37" t="s">
         <v>335</v>
       </c>
@@ -5807,7 +6032,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>337</v>
       </c>
@@ -5815,17 +6040,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="42"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B234" s="38"/>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>340</v>
       </c>
@@ -5833,7 +6058,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>342</v>
       </c>
@@ -5841,7 +6066,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>344</v>
       </c>
@@ -5849,17 +6074,17 @@
         <v>345</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
         <v>346</v>
       </c>
       <c r="B239" s="15"/>
     </row>
-    <row r="240" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
         <v>347</v>
       </c>
@@ -5867,7 +6092,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
         <v>349</v>
       </c>
@@ -5875,7 +6100,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>351</v>
       </c>
@@ -5883,17 +6108,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="20"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>353</v>
       </c>
       <c r="B244" s="15"/>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>354</v>
       </c>
@@ -5901,7 +6126,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>356</v>
       </c>
@@ -5909,7 +6134,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>358</v>
       </c>
@@ -5917,7 +6142,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>360</v>
       </c>
@@ -5925,7 +6150,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>362</v>
       </c>
@@ -5933,7 +6158,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>364</v>
       </c>
@@ -5941,7 +6166,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>366</v>
       </c>
@@ -5949,7 +6174,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>368</v>
       </c>
@@ -5957,7 +6182,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>370</v>
       </c>
@@ -5965,7 +6190,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>372</v>
       </c>
@@ -5973,7 +6198,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>374</v>
       </c>
@@ -5981,7 +6206,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>376</v>
       </c>
@@ -5989,7 +6214,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>378</v>
       </c>
@@ -5997,7 +6222,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>380</v>
       </c>
@@ -6005,7 +6230,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>382</v>
       </c>
@@ -6013,7 +6238,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>384</v>
       </c>
@@ -6021,17 +6246,17 @@
         <v>385</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="43"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="45" t="s">
         <v>386</v>
       </c>
       <c r="B262" s="46"/>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A263" s="10" t="s">
         <v>387</v>
       </c>
@@ -6039,7 +6264,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
         <v>389</v>
       </c>
@@ -6047,17 +6272,17 @@
         <v>390</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="11"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
         <v>391</v>
       </c>
       <c r="B266" s="15"/>
     </row>
-    <row r="267" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A267" s="47" t="s">
         <v>392</v>
       </c>
@@ -6065,7 +6290,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A268" s="47" t="s">
         <v>394</v>
       </c>
@@ -6073,7 +6298,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A269" s="47" t="s">
         <v>396</v>
       </c>
@@ -6081,25 +6306,25 @@
         <v>397</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="48"/>
       <c r="B270" s="49"/>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A271" s="50"/>
       <c r="B271" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1" xr:uid="{111716D0-4C97-48C9-925C-A96DB64C4B42}"/>
-    <hyperlink ref="B209" r:id="rId2" display="info@akyeampongandco.com" xr:uid="{F2D8AA8E-6C7B-4C60-9FE6-4A5C950D156A}"/>
-    <hyperlink ref="B53" r:id="rId3" xr:uid="{603B848C-0AE9-4448-A4DD-C67CFE255884}"/>
-    <hyperlink ref="B46" r:id="rId4" display="Tel:0244132433 / 0208211536 / 0246140524" xr:uid="{686262D4-9987-495A-BDDF-23835CB0112A}"/>
-    <hyperlink ref="B200" r:id="rId5" xr:uid="{B011EF24-CEBD-4ED2-99F9-48D8B1D36AD5}"/>
-    <hyperlink ref="B242" r:id="rId6" xr:uid="{9AC93A72-2FE4-4709-A055-030DA9296DFD}"/>
-    <hyperlink ref="B72" r:id="rId7" display="Tel:0246 444 644 - Tabitha" xr:uid="{6F161F56-9611-4102-A730-F380A7324B0C}"/>
-    <hyperlink ref="B87" r:id="rId8" display="Tel:0246 444 644 - Tabitha" xr:uid="{14CF387C-2CD6-4070-B88A-285B851FBA15}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{99293097-CDEB-48B0-8DCA-5213571D4462}"/>
+    <hyperlink ref="B67" r:id="rId1"/>
+    <hyperlink ref="B209" r:id="rId2" display="info@akyeampongandco.com"/>
+    <hyperlink ref="B53" r:id="rId3"/>
+    <hyperlink ref="B46" r:id="rId4" display="Tel:0244132433 / 0208211536 / 0246140524"/>
+    <hyperlink ref="B200" r:id="rId5"/>
+    <hyperlink ref="B242" r:id="rId6"/>
+    <hyperlink ref="B72" r:id="rId7" display="Tel:0246 444 644 - Tabitha"/>
+    <hyperlink ref="B87" r:id="rId8" display="Tel:0246 444 644 - Tabitha"/>
+    <hyperlink ref="B14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
@@ -6108,4 +6333,2757 @@
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000PUBLIC</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L186"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="59" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.33203125" style="78" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="78" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="79">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="91">
+        <v>243661540</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="J2" s="91">
+        <v>243661540</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="79">
+        <f>SUM(A2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="91">
+        <v>244630680</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="79">
+        <f t="shared" ref="A4:A67" si="0">SUM(A3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="91">
+        <v>267245676</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="J5" s="91">
+        <v>244647848</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="J6" s="91">
+        <v>243568033</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="J7" s="91">
+        <v>244301097</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="J8" s="91">
+        <v>242967354</v>
+      </c>
+      <c r="L8" s="78" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="J9" s="91">
+        <v>244625838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="79">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="79">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="79">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="79">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="79">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="79">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="79">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="79">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="79">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="79">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="79">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="79">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="79">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="79">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="79">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="79">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="79">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="79">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="79">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="79">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="79">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="79">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="79">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="79">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="79">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="79">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="79">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="79">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="79">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="79">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="79">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="79">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="79">
+        <f t="shared" ref="A68:A131" si="1">SUM(A67,1)</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="79">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="79">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="79">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="79">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="79">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="79">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="79">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="79">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C79" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="79">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="79">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="79">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="79">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="79">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="79">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="79">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="79">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="79">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="79">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="79">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="79">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="79">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="79">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="79">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="79">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="79">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="79">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="79">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="79">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="79">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="79">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="79">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="79">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="79">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="79">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="79">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="79">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="79">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="79">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="79">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="79">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="79">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="79">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="79">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="79">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="79">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="79">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="79">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="79">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="79">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="79">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" s="71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="79">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C122" s="71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="79">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="79">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="79">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="79">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="79">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="79">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="79">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" s="71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="79">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" s="71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="79">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131" s="71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="79">
+        <f t="shared" ref="A132:A186" si="2">SUM(A131,1)</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="79">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C133" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="79">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="79">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="79">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C136" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="79">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="79">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="79">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" s="87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="79">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="79">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="79">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="79">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="79">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="79">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="79">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="79">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C147" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="79">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="79">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="79">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="79">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="C151" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="79">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="79">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="79">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C154" s="71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="79">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C155" s="71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="79">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C156" s="71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="79">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C157" s="71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="79">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="88" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="79">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C159" s="71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="79">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" s="71" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="79">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C161" s="71" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="79">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="C162" s="71" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="79">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" s="71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="79">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C164" s="71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="79">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" s="71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="79">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="C166" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="79">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="C167" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="79">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="79">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C169" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="79">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="C170" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="79">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="C171" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="79">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="C172" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="79">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C173" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="79">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C174" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="79">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="C175" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="79">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="81" t="s">
+        <v>374</v>
+      </c>
+      <c r="C176" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="79">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="C177" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="79">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="81" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="79">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="81" t="s">
+        <v>380</v>
+      </c>
+      <c r="C179" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="79">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="81" t="s">
+        <v>382</v>
+      </c>
+      <c r="C180" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="79">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C181" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="79">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="C182" s="89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="79">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="C183" s="89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="79">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="C184" s="71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="79">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="79">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" s="71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="64"/>
+    <col min="2" max="2" width="118.77734375" style="99" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="64">
+        <v>1</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="64">
+        <f>SUM(A2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="64">
+        <f t="shared" ref="A4:A41" si="0">SUM(A3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="64">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="64">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="64">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="64">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="64">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="64">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="64">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="64">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="64">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="64">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="64">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="64">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="64">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="64">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="64">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="64">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="64">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="64">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="64">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="64">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="64">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="64">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="64">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="64">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="64">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="97" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="64">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="64">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="64">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="95" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="64">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="64">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="95" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="64">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="64">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="95" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="64">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="64">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="64">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="95" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/VendorList_for_Upload.xlsx
+++ b/VendorList_for_Upload.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All_Vendor_List" sheetId="1" r:id="rId1"/>
     <sheet name="Approved_List" sheetId="2" r:id="rId2"/>
-    <sheet name="Vendors" sheetId="3" r:id="rId3"/>
-    <sheet name="VendorType" sheetId="4" r:id="rId4"/>
+    <sheet name="VendorList" sheetId="3" r:id="rId3"/>
+    <sheet name="Vendors-2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="VendorType" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="488">
   <si>
     <t>LIST OF PAN-AFRICAN APPROVED VENDORS – UPDATED FOR 2021</t>
   </si>
@@ -1255,15 +1257,9 @@
     <t>0277700778 /0241977969</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>VendorName</t>
   </si>
   <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
     <t>VendorType</t>
   </si>
   <si>
@@ -1282,9 +1278,6 @@
     <t>CompanyContact</t>
   </si>
   <si>
-    <t>CompanyWebsite</t>
-  </si>
-  <si>
     <t>CompanyEmailAddress</t>
   </si>
   <si>
@@ -1340,15 +1333,196 @@
   </si>
   <si>
     <t>Shirley Acquah Harrison</t>
+  </si>
+  <si>
+    <t>Kwaku Kwako</t>
+  </si>
+  <si>
+    <t>p_wiseltd@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>brandablaze@gmail.com</t>
+  </si>
+  <si>
+    <t>Patience Aidoo</t>
+  </si>
+  <si>
+    <t>pennsilinesstudio@gmail.com</t>
+  </si>
+  <si>
+    <t>Brenda Bruce Okine</t>
+  </si>
+  <si>
+    <t>Georgina E. Nettey</t>
+  </si>
+  <si>
+    <t>Martin Addo</t>
+  </si>
+  <si>
+    <t>Kwamena Aboagye</t>
+  </si>
+  <si>
+    <t>Amankwah</t>
+  </si>
+  <si>
+    <t>Evans Koranteng</t>
+  </si>
+  <si>
+    <t>evans.koranteng@gmail.com</t>
+  </si>
+  <si>
+    <t>Flora Lamptey</t>
+  </si>
+  <si>
+    <t>floral.lamptey@adomonline.com</t>
+  </si>
+  <si>
+    <t>Javon</t>
+  </si>
+  <si>
+    <t>javoneffectsltd@gmail.com</t>
+  </si>
+  <si>
+    <t>Aunty Adomah</t>
+  </si>
+  <si>
+    <t>Emelia</t>
+  </si>
+  <si>
+    <t>Eric Odoom</t>
+  </si>
+  <si>
+    <t>Nadim Haider</t>
+  </si>
+  <si>
+    <t>William Kwakuyi</t>
+  </si>
+  <si>
+    <t>Stephen Akakpo</t>
+  </si>
+  <si>
+    <t>Albright</t>
+  </si>
+  <si>
+    <t>Maame Akua</t>
+  </si>
+  <si>
+    <t>Abedi</t>
+  </si>
+  <si>
+    <t>Martha Agdekudzi</t>
+  </si>
+  <si>
+    <t>Eunice</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Owusu / Rita</t>
+  </si>
+  <si>
+    <t>CompanyContact2</t>
+  </si>
+  <si>
+    <t>Mr &amp; Mrs. Sarpong</t>
+  </si>
+  <si>
+    <t>Ntim</t>
+  </si>
+  <si>
+    <t>Joseph Quartey</t>
+  </si>
+  <si>
+    <t>Salomey / Abdul</t>
+  </si>
+  <si>
+    <t>enterprisetechgh@outlook.com</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Freda</t>
+  </si>
+  <si>
+    <t>Dennis Adusah</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Harriet / Peditha</t>
+  </si>
+  <si>
+    <t>0302221658/4</t>
+  </si>
+  <si>
+    <t>John Kwesi Godigbe</t>
+  </si>
+  <si>
+    <t>Emmanuel Asiedu</t>
+  </si>
+  <si>
+    <t>Freda Aryeetey</t>
+  </si>
+  <si>
+    <t>Delphine Teye</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>Gloria Nyabi</t>
+  </si>
+  <si>
+    <t>Michael Ankrah</t>
+  </si>
+  <si>
+    <t>Ghapson</t>
+  </si>
+  <si>
+    <t>George Ofosu</t>
+  </si>
+  <si>
+    <t>Merilyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Makus</t>
+  </si>
+  <si>
+    <t>VendorNo</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="00000000000"/>
-    <numFmt numFmtId="166" formatCode="0000000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="00000000000"/>
+    <numFmt numFmtId="165" formatCode="0000000000"/>
+    <numFmt numFmtId="167" formatCode="000\-0000"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1539,7 +1713,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,6 +1741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1907,12 +2087,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1936,10 +2116,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1962,6 +2142,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2380,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ272"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4399,7 +4594,7 @@
   <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4635,7 @@
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -4448,7 +4643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -4456,7 +4651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>8</v>
       </c>
@@ -4464,7 +4659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -4504,7 +4699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
@@ -4512,7 +4707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>22</v>
       </c>
@@ -4520,7 +4715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>24</v>
       </c>
@@ -4604,7 +4799,7 @@
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>41</v>
       </c>
@@ -4612,7 +4807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>43</v>
       </c>
@@ -4630,7 +4825,7 @@
       </c>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
@@ -4672,7 +4867,7 @@
       </c>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4722,7 +4917,7 @@
       </c>
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="54" t="s">
         <v>66</v>
       </c>
@@ -4738,7 +4933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
         <v>70</v>
       </c>
@@ -4746,7 +4941,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
@@ -4776,11 +4971,11 @@
       <c r="A53" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="92" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>79</v>
       </c>
@@ -4796,7 +4991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>83</v>
       </c>
@@ -4812,7 +5007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>87</v>
       </c>
@@ -4838,7 +5033,7 @@
       </c>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="54" t="s">
         <v>92</v>
       </c>
@@ -4856,7 +5051,7 @@
       </c>
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="54" t="s">
         <v>95</v>
       </c>
@@ -4876,7 +5071,7 @@
       <c r="A67" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="92" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4920,7 +5115,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
         <v>111</v>
       </c>
@@ -5058,7 +5253,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>135</v>
       </c>
@@ -5126,7 +5321,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="54" t="s">
         <v>149</v>
       </c>
@@ -5194,9 +5389,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="11"/>
+    <row r="112" spans="1:2" s="105" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A112" s="103"/>
+      <c r="B112" s="104"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
@@ -5310,7 +5505,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>186</v>
       </c>
@@ -5466,7 +5661,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="54" t="s">
         <v>220</v>
       </c>
@@ -5492,7 +5687,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>10</v>
       </c>
@@ -5524,7 +5719,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>231</v>
       </c>
@@ -5584,7 +5779,7 @@
       </c>
       <c r="B166" s="26"/>
     </row>
-    <row r="167" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>243</v>
       </c>
@@ -5686,7 +5881,7 @@
       </c>
       <c r="B181" s="15"/>
     </row>
-    <row r="182" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>264</v>
       </c>
@@ -5704,7 +5899,7 @@
       </c>
       <c r="B184" s="15"/>
     </row>
-    <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>267</v>
       </c>
@@ -5766,7 +5961,7 @@
       </c>
       <c r="B194" s="15"/>
     </row>
-    <row r="195" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>278</v>
       </c>
@@ -5790,7 +5985,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>284</v>
       </c>
@@ -5858,7 +6053,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>298</v>
       </c>
@@ -5908,7 +6103,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A215" s="10" t="s">
         <v>309</v>
       </c>
@@ -5964,7 +6159,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>323</v>
       </c>
@@ -6024,7 +6219,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A231" s="37" t="s">
         <v>335</v>
       </c>
@@ -6084,7 +6279,7 @@
       </c>
       <c r="B239" s="15"/>
     </row>
-    <row r="240" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
         <v>347</v>
       </c>
@@ -6092,7 +6287,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
         <v>349</v>
       </c>
@@ -6282,7 +6477,7 @@
       </c>
       <c r="B266" s="15"/>
     </row>
-    <row r="267" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="47" t="s">
         <v>392</v>
       </c>
@@ -6290,7 +6485,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="47" t="s">
         <v>394</v>
       </c>
@@ -6298,7 +6493,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="47" t="s">
         <v>396</v>
       </c>
@@ -6337,2375 +6532,4344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L186"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="59" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.33203125" style="78" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="78" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="78"/>
+    <col min="2" max="2" width="9.109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.33203125" style="78" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="91" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="23" style="78" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="78" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="80" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="78" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="102" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.44140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="D1" s="76" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>417</v>
-      </c>
-      <c r="D1" s="90" t="s">
+      <c r="G1" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="H1" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="I1" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="J1" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="K1" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="L1" s="101" t="s">
+        <v>458</v>
+      </c>
+      <c r="M1" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="J1" s="90" t="s">
-        <v>410</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>411</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="79">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="D2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="91">
+      <c r="E2" s="91">
         <v>243661540</v>
       </c>
-      <c r="E2" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>414</v>
-      </c>
-      <c r="J2" s="91">
+      <c r="F2" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="K2" s="91">
         <v>243661540</v>
       </c>
-      <c r="L2" s="78" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="79">
-        <f>SUM(A2,1)</f>
+        <f t="shared" ref="A3:A34" si="0">SUM(A2,1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="D3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="91">
+      <c r="E3" s="91">
         <v>244630680</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="L3" s="78" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F3" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="K3" s="91">
+        <v>244630680</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="79">
-        <f t="shared" ref="A4:A67" si="0">SUM(A3,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="C4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="D4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="91">
+      <c r="E4" s="91">
         <v>267245676</v>
       </c>
-      <c r="L4" s="63" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>484</v>
+      </c>
+      <c r="K4" s="91">
+        <v>267245676</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="C5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="J5" s="91">
+      <c r="E5" s="91">
+        <f>K5</f>
         <v>244647848</v>
       </c>
-      <c r="L5" s="78" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="91">
+        <v>244647848</v>
+      </c>
+      <c r="M5" s="78" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="79">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="C6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="D6" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="J6" s="91">
+      <c r="E6" s="91">
+        <f t="shared" ref="E6:E69" si="1">K6</f>
         <v>243568033</v>
       </c>
-      <c r="L6" s="78" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="K6" s="91">
+        <v>243568033</v>
+      </c>
+      <c r="M6" s="78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="C7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="D7" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="J7" s="91">
+      <c r="E7" s="91">
+        <f t="shared" si="1"/>
         <v>244301097</v>
       </c>
-      <c r="L7" s="78" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="K7" s="91">
+        <v>244301097</v>
+      </c>
+      <c r="M7" s="78" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="C8" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="D8" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="J8" s="91">
+      <c r="E8" s="91">
+        <f t="shared" si="1"/>
         <v>242967354</v>
       </c>
-      <c r="L8" s="78" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="K8" s="91">
+        <v>242967354</v>
+      </c>
+      <c r="M8" s="78" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="C9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="D9" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="78" t="s">
-        <v>430</v>
-      </c>
-      <c r="J9" s="91">
+      <c r="E9" s="91">
+        <f t="shared" si="1"/>
         <v>244625838</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="K9" s="91">
+        <v>244625838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="C10" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="D10" s="70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="91">
+        <f t="shared" si="1"/>
+        <v>244355283</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="91">
+        <v>244355283</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="C11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="D11" s="70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="91">
+        <f t="shared" si="1"/>
+        <v>549911116</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="K11" s="91">
+        <v>549911116</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="79">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="C12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="91">
+        <f t="shared" si="1"/>
+        <v>202693301</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="K12" s="91">
+        <v>202693301</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="C13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="D13" s="71" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="91">
+        <f t="shared" si="1"/>
+        <v>272439765</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>485</v>
+      </c>
+      <c r="K13" s="91">
+        <v>272439765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="79">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="C14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="D14" s="71" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="91">
+        <f t="shared" si="1"/>
+        <v>202431492</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I14" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="K14" s="91">
+        <v>202431492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="C15" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="D15" s="71" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="91">
+        <f t="shared" si="1"/>
+        <v>244446894</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I15" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="K15" s="91">
+        <v>244446894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="79">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="C16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="D16" s="71" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="91">
+        <f t="shared" si="1"/>
+        <v>244630680</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J16" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="K16" s="91">
+        <v>244630680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="79">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="C17" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="D17" s="71" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="91">
+        <f t="shared" si="1"/>
+        <v>208117693</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="K17" s="91">
+        <v>208117693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="79">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="C18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="D18" s="71" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="91">
+        <f t="shared" si="1"/>
+        <v>244827377</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="K18" s="91">
+        <v>244827377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="79">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="C19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="D19" s="71" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="91">
+        <f t="shared" si="1"/>
+        <v>265738863</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="K19" s="91">
+        <v>265738863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="79">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="C20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="D20" s="72" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="91">
+        <f t="shared" si="1"/>
+        <v>243446833</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>439</v>
+      </c>
+      <c r="K20" s="91">
+        <v>243446833</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="79">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="C21" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="D21" s="72" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="91">
+        <f t="shared" si="1"/>
+        <v>244340447</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="K21" s="91">
+        <v>244340447</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="79">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="C22" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="D22" s="71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="91">
+        <f t="shared" si="1"/>
+        <v>209992199</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>443</v>
+      </c>
+      <c r="K22" s="91">
+        <v>209992199</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="79">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="C23" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="D23" s="71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="91">
+        <f t="shared" si="1"/>
+        <v>244717179</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I23" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K23" s="91">
+        <v>244717179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="79">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="C24" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="D24" s="71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="91">
+        <f t="shared" si="1"/>
+        <v>244351004</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I24" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K24" s="91">
+        <v>244351004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="79">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="C25" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="D25" s="71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="91">
+        <f t="shared" si="1"/>
+        <v>570805897</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H25" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J25" s="78" t="s">
+        <v>445</v>
+      </c>
+      <c r="K25" s="91">
+        <v>570805897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="79">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="C26" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="D26" s="71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="91">
+        <f t="shared" si="1"/>
+        <v>302771907</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I26" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="K26" s="91">
+        <v>302771907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="79">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="C27" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="D27" s="71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="91">
+        <f t="shared" si="1"/>
+        <v>243236860</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>447</v>
+      </c>
+      <c r="K27" s="91">
+        <v>243236860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="79">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="C28" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="D28" s="71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="91">
+        <f t="shared" si="1"/>
+        <v>549511115</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="K28" s="91">
+        <v>549511115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="79">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="C29" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="D29" s="71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" s="91">
+        <f t="shared" si="1"/>
+        <v>249205577</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H29" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>449</v>
+      </c>
+      <c r="K29" s="91">
+        <v>249205577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="79">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="C30" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="D30" s="71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" s="91">
+        <f t="shared" si="1"/>
+        <v>248903020</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I30" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K30" s="91">
+        <v>248903020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="79">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="C31" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="D31" s="71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" s="91">
+        <f t="shared" si="1"/>
+        <v>244132433</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G31" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I31" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="K31" s="91">
+        <v>244132433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="79">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="C32" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="D32" s="71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" s="91">
+        <f t="shared" si="1"/>
+        <v>241979502</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I32" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="K32" s="91">
+        <v>241979502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="79">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="C33" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="D33" s="71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" s="91">
+        <f t="shared" si="1"/>
+        <v>577679957</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G33" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="K33" s="91">
+        <v>577679957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="79">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="C34" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="D34" s="71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" s="91">
+        <f t="shared" si="1"/>
+        <v>208296897</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I34" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>453</v>
+      </c>
+      <c r="K34" s="91">
+        <v>208296897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A35:A66" si="2">SUM(A34,1)</f>
         <v>34</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="C35" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="D35" s="71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" s="91">
+        <f t="shared" si="1"/>
+        <v>543694224</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G35" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I35" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>454</v>
+      </c>
+      <c r="K35" s="91">
+        <v>543694224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="C36" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="D36" s="71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36" s="91">
+        <f t="shared" si="1"/>
+        <v>302764101</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K36" s="91">
+        <v>302764101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="C37" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="D37" s="71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" s="91">
+        <f t="shared" si="1"/>
+        <v>244271710</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H37" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I37" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="K37" s="91">
+        <v>244271710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="C38" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="D38" s="71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38" s="91">
+        <f t="shared" si="1"/>
+        <v>245313044</v>
+      </c>
+      <c r="F38" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G38" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I38" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="K38" s="91">
+        <v>245313044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="C39" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="D39" s="71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39" s="91">
+        <f t="shared" si="1"/>
+        <v>208981244</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G39" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="K39" s="91">
+        <v>208981244</v>
+      </c>
+      <c r="L39" s="102">
+        <v>207666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="C40" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="D40" s="71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="E40" s="91">
+        <f t="shared" si="1"/>
+        <v>275912531</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G40" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K40" s="91">
+        <v>275912531</v>
+      </c>
+      <c r="L40" s="102">
+        <v>241193578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="C41" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="D41" s="71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41" s="91">
+        <f t="shared" si="1"/>
+        <v>208228311</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G41" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I41" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>459</v>
+      </c>
+      <c r="K41" s="91">
+        <v>208228311</v>
+      </c>
+      <c r="L41" s="102">
+        <v>243503785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="C42" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="D42" s="71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" s="91">
+        <f t="shared" si="1"/>
+        <v>244778181</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G42" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I42" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>460</v>
+      </c>
+      <c r="K42" s="91">
+        <v>244778181</v>
+      </c>
+      <c r="L42" s="102">
+        <v>554488031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="C43" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="D43" s="71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43" s="91">
+        <f t="shared" si="1"/>
+        <v>243329850</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G43" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I43" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>461</v>
+      </c>
+      <c r="K43" s="91">
+        <v>243329850</v>
+      </c>
+      <c r="L43" s="102">
+        <v>277197973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="C44" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="D44" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" s="91">
+        <f t="shared" si="1"/>
+        <v>208542517</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G44" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H44" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I44" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>462</v>
+      </c>
+      <c r="K44" s="91">
+        <v>208542517</v>
+      </c>
+      <c r="L44" s="102">
+        <v>245356426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="C45" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="D45" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45" s="91">
+        <f t="shared" si="1"/>
+        <v>302773273</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G45" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K45" s="91">
+        <v>302773273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="C46" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="D46" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" s="91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I46" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="M46" s="78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="C47" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="D47" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47" s="91">
+        <f t="shared" si="1"/>
+        <v>302782858</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I47" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K47" s="11">
+        <v>302782858</v>
+      </c>
+      <c r="L47" s="102">
+        <v>245313030</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="C48" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="D48" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" s="91">
+        <f t="shared" si="1"/>
+        <v>200747874</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G48" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I48" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="K48" s="91">
+        <v>200747874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="C49" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="D49" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" s="91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H49" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I49" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J49" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="C50" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="D50" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50" s="91">
+        <f t="shared" si="1"/>
+        <v>501673962</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I50" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="K50" s="91">
+        <v>501673962</v>
+      </c>
+      <c r="L50" s="102">
+        <v>302240121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="C51" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="D51" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="E51" s="91">
+        <f t="shared" si="1"/>
+        <v>246444644</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I51" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>467</v>
+      </c>
+      <c r="K51" s="91">
+        <v>246444644</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="C52" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="D52" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52" s="91">
+        <f t="shared" si="1"/>
+        <v>202200030</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I52" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="K52" s="91">
+        <v>202200030</v>
+      </c>
+      <c r="L52" s="102">
+        <v>243111927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="C53" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="D53" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53" s="91" t="str">
+        <f t="shared" si="1"/>
+        <v>0302221658/4</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I53" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K53" s="91" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="C54" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="D54" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54" s="91">
+        <f t="shared" si="1"/>
+        <v>244562136</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G54" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I54" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="K54" s="91">
+        <v>244562136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="C55" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="D55" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55" s="91">
+        <f t="shared" si="1"/>
+        <v>549511115</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H55" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I55" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="K55" s="91">
+        <v>549511115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="C56" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="D56" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56" s="91">
+        <f t="shared" si="1"/>
+        <v>542688930</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I56" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" s="91">
+        <v>542688930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="C57" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="D57" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57" s="91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G57" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="C58" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="D58" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58" s="91">
+        <f t="shared" si="1"/>
+        <v>244831561</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I58" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J58" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="K58" s="91">
+        <v>244831561</v>
+      </c>
+      <c r="L58" s="102">
+        <v>202057007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="C59" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="D59" s="71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59" s="91">
+        <f t="shared" si="1"/>
+        <v>243522383</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G59" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I59" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K59" s="91">
+        <v>243522383</v>
+      </c>
+      <c r="L59" s="102">
+        <v>262522383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="C60" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="D60" s="71" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60" s="91">
+        <f t="shared" si="1"/>
+        <v>200747874</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I60" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="K60" s="91">
+        <v>200747874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="C61" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="D61" s="71" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61" s="91">
+        <f t="shared" si="1"/>
+        <v>244562136</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H61" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I61" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="K61" s="91">
+        <v>244562136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="C62" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="D62" s="71" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62" s="91">
+        <f t="shared" si="1"/>
+        <v>549511115</v>
+      </c>
+      <c r="F62" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G62" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I62" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J62" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="K62" s="91">
+        <v>549511115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B63" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="91">
+        <f t="shared" si="1"/>
+        <v>302778841</v>
+      </c>
+      <c r="F63" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I63" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K63" s="91">
+        <v>302778841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B64" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="91">
+        <f t="shared" si="1"/>
+        <v>243683958</v>
+      </c>
+      <c r="F64" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G64" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H64" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I64" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="K64" s="91">
+        <v>243683958</v>
+      </c>
+      <c r="L64" s="102">
+        <v>263631818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B65" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="71" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E65" s="91">
+        <f t="shared" si="1"/>
+        <v>249477629</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G65" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H65" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I65" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J65" s="78" t="s">
+        <v>474</v>
+      </c>
+      <c r="K65" s="91">
+        <v>249477629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B66" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="91">
+        <f t="shared" si="1"/>
+        <v>244645661</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G66" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H66" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I66" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J66" s="78" t="s">
+        <v>475</v>
+      </c>
+      <c r="K66" s="91">
+        <v>244645661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A67:A74" si="3">SUM(A66,1)</f>
         <v>66</v>
       </c>
-      <c r="B67" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C67" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="91">
+        <f t="shared" si="1"/>
+        <v>244698220</v>
+      </c>
+      <c r="F67" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G67" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H67" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I67" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J67" s="78" t="s">
+        <v>476</v>
+      </c>
+      <c r="K67" s="91">
+        <v>244698220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="79">
-        <f t="shared" ref="A68:A131" si="1">SUM(A67,1)</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B68" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="91">
+        <f t="shared" si="1"/>
+        <v>576155441</v>
+      </c>
+      <c r="F68" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G68" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H68" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I68" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="K68" s="91">
+        <v>576155441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="79">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="91">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244104723</v>
+      </c>
+      <c r="F69" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G69" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H69" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I69" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J69" s="78" t="s">
+        <v>478</v>
+      </c>
+      <c r="K69" s="91">
+        <v>244104723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B70" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="91">
+        <f t="shared" ref="E70:E73" si="4">K70</f>
+        <v>242678643</v>
+      </c>
+      <c r="F70" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G70" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H70" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I70" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J70" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="K70" s="91">
+        <v>242678643</v>
+      </c>
+      <c r="L70" s="102">
+        <v>277545347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B71" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="91">
+        <f t="shared" si="4"/>
+        <v>206832725</v>
+      </c>
+      <c r="F71" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G71" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H71" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I71" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J71" s="78" t="s">
+        <v>480</v>
+      </c>
+      <c r="K71" s="91">
+        <v>206832725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B72" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="71" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E72" s="91">
+        <f t="shared" si="4"/>
+        <v>274605436</v>
+      </c>
+      <c r="F72" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G72" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H72" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I72" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J72" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="K72" s="91">
+        <v>274605436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B73" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="91">
+        <f t="shared" si="4"/>
+        <v>205031068</v>
+      </c>
+      <c r="F73" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G73" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H73" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="I73" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="J73" s="78" t="s">
+        <v>482</v>
+      </c>
+      <c r="K73" s="91">
+        <v>205031068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="B74" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="79">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="79">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="79">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="79">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="66" t="s">
+      <c r="C74" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="71" t="s">
+      <c r="D74" s="71" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="79">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B79" s="82" t="s">
-        <v>418</v>
-      </c>
-      <c r="C79" s="71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="79">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="79">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="79">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="79">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="79">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="79">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="79">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B86" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="79">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="79">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B88" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="79">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="79">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B90" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="79">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B91" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C91" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="79">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B92" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="79">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B93" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="79">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B94" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="79">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B95" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="79">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B96" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="79">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B97" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="79">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B98" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="79">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B99" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="79">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B100" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="79">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B101" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="79">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B102" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="C102" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="79">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B103" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="79">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B104" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C104" s="71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="79">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B105" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="79">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B106" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="C106" s="71" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="79">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B107" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="79">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="B108" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="C108" s="71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="79">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="B109" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="79">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="B110" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="79">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="B111" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="79">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="B112" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="79">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B113" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="C113" s="71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="79">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="B114" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="C114" s="71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="79">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B115" s="82" t="s">
-        <v>236</v>
-      </c>
-      <c r="C115" s="84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="79">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="B116" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="C116" s="84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="79">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="B117" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="C117" s="84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="79">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="B118" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="C118" s="71" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="79">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" s="71" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="79">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="C120" s="71" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="79">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="C121" s="71" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="79">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C122" s="71" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="79">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="B123" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="C123" s="71" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="79">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="B124" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="C124" s="71" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="79">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="B125" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="C125" s="71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="79">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="B126" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" s="71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="79">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="C127" s="87" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="79">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="79">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="B129" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="C129" s="71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="79">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" s="71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="79">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="C131" s="71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="79">
-        <f t="shared" ref="A132:A186" si="2">SUM(A131,1)</f>
-        <v>131</v>
-      </c>
-      <c r="B132" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="C132" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="79">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="C133" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="79">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="C134" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="79">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="B135" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="C135" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="79">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="B136" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="C136" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="79">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="B137" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="C137" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="79">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="C138" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="79">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="C139" s="87" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="79">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="B140" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="C140" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="79">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="B141" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="C141" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="79">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="B142" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="79">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="B143" s="66" t="s">
-        <v>303</v>
-      </c>
-      <c r="C143" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="79">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="B144" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="C144" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="79">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="B145" s="81" t="s">
-        <v>307</v>
-      </c>
-      <c r="C145" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="79">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="B146" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="C146" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="79">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="B147" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="C147" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="79">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="B148" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="C148" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="79">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="B149" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="C149" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="79">
-        <f t="shared" si="2"/>
-        <v>149</v>
-      </c>
-      <c r="B150" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="C150" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="79">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="B151" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="C151" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="79">
-        <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
-      <c r="B152" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="C152" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="79">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-      <c r="B153" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="C153" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="79">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="B154" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="C154" s="71" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="79">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="B155" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="C155" s="71" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="79">
-        <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="B156" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="C156" s="71" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="79">
-        <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="B157" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="C157" s="71" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="79">
-        <f t="shared" si="2"/>
-        <v>157</v>
-      </c>
-      <c r="B158" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="C158" s="71" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="79">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="B159" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C159" s="71" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="79">
-        <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="B160" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="C160" s="71" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="79">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="B161" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="C161" s="71" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="79">
-        <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="B162" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="C162" s="71" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="79">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="B163" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="C163" s="71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="79">
-        <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="B164" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="C164" s="71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="79">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-      <c r="B165" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="C165" s="71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="79">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="B166" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="C166" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="79">
-        <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
-      <c r="B167" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C167" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="79">
-        <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="B168" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="C168" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="79">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="B169" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="C169" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="79">
-        <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-      <c r="B170" s="81" t="s">
-        <v>362</v>
-      </c>
-      <c r="C170" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="79">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="B171" s="81" t="s">
-        <v>364</v>
-      </c>
-      <c r="C171" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="79">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="B172" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="C172" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="79">
-        <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="B173" s="81" t="s">
-        <v>368</v>
-      </c>
-      <c r="C173" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="79">
-        <f t="shared" si="2"/>
-        <v>173</v>
-      </c>
-      <c r="B174" s="81" t="s">
-        <v>370</v>
-      </c>
-      <c r="C174" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="79">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="B175" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="C175" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="79">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="B176" s="81" t="s">
-        <v>374</v>
-      </c>
-      <c r="C176" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="79">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="B177" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="C177" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="79">
-        <f t="shared" si="2"/>
-        <v>177</v>
-      </c>
-      <c r="B178" s="81" t="s">
-        <v>378</v>
-      </c>
-      <c r="C178" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="79">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="B179" s="81" t="s">
-        <v>380</v>
-      </c>
-      <c r="C179" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="79">
-        <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
-      <c r="B180" s="81" t="s">
-        <v>382</v>
-      </c>
-      <c r="C180" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="79">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="B181" s="81" t="s">
-        <v>384</v>
-      </c>
-      <c r="C181" s="71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="79">
-        <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-      <c r="B182" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="C182" s="89" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="79">
-        <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
-      <c r="B183" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="C183" s="89" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="79">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="B184" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="C184" s="71" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="79">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="B185" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="C185" s="71" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="79">
-        <f t="shared" si="2"/>
-        <v>185</v>
-      </c>
-      <c r="B186" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="C186" s="71" t="s">
-        <v>391</v>
+      <c r="K74" s="91">
+        <v>302778841</v>
+      </c>
+      <c r="L74" s="102">
+        <v>302764867</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="79">
+        <f>SUM(VendorList!A74,1)</f>
+        <v>74</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="H1" s="80"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="102"/>
+    </row>
+    <row r="2" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="79">
+        <f t="shared" ref="A2:A33" si="0">SUM(A1,1)</f>
+        <v>75</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="H2" s="80"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="79">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="102"/>
+    </row>
+    <row r="4" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="H4" s="80"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="102"/>
+    </row>
+    <row r="5" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="H5" s="80"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="102"/>
+    </row>
+    <row r="6" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="H6" s="80"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="102"/>
+    </row>
+    <row r="7" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="H7" s="80"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="102"/>
+    </row>
+    <row r="8" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="H8" s="80"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="102"/>
+    </row>
+    <row r="9" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="H9" s="80"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="102"/>
+    </row>
+    <row r="10" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="H10" s="80"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="102"/>
+    </row>
+    <row r="11" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="H11" s="80"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="102"/>
+    </row>
+    <row r="12" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="H12" s="80"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="102"/>
+    </row>
+    <row r="13" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="H13" s="80"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="102"/>
+    </row>
+    <row r="14" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="H14" s="80"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="102"/>
+    </row>
+    <row r="15" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="H15" s="80"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="102"/>
+    </row>
+    <row r="16" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="H16" s="80"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="102"/>
+    </row>
+    <row r="17" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="H17" s="80"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="102"/>
+    </row>
+    <row r="18" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="H18" s="80"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="102"/>
+    </row>
+    <row r="19" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="91"/>
+      <c r="H19" s="80"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="102"/>
+    </row>
+    <row r="20" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="H20" s="80"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="102"/>
+    </row>
+    <row r="21" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="H21" s="80"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="102"/>
+    </row>
+    <row r="22" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="H22" s="80"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="H23" s="80"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="102"/>
+    </row>
+    <row r="24" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="79">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="H24" s="80"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="102"/>
+    </row>
+    <row r="25" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="79">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="H25" s="80"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="102"/>
+    </row>
+    <row r="26" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="H26" s="80"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="102"/>
+    </row>
+    <row r="27" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="91"/>
+      <c r="H27" s="80"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="102"/>
+    </row>
+    <row r="28" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="79">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="H28" s="80"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="102"/>
+    </row>
+    <row r="29" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="79">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="H29" s="80"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="102"/>
+    </row>
+    <row r="30" spans="1:11" s="78" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="79">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="91"/>
+      <c r="H30" s="80"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="102"/>
+    </row>
+    <row r="31" spans="1:11" s="78" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="91"/>
+      <c r="H31" s="80"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="102"/>
+    </row>
+    <row r="32" spans="1:11" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="79">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="91"/>
+      <c r="H32" s="80"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="102"/>
+    </row>
+    <row r="33" spans="1:11" s="78" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="79">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="91"/>
+      <c r="H33" s="80"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="102"/>
+    </row>
+    <row r="34" spans="1:11" s="78" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
+        <f t="shared" ref="A34:A65" si="1">SUM(A33,1)</f>
+        <v>107</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="H34" s="80"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="102"/>
+    </row>
+    <row r="35" spans="1:11" s="78" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="H35" s="80"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="102"/>
+    </row>
+    <row r="36" spans="1:11" s="78" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="91"/>
+      <c r="H36" s="80"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="102"/>
+    </row>
+    <row r="37" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="91"/>
+      <c r="H37" s="80"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="102"/>
+    </row>
+    <row r="38" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="79">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="H38" s="80"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="102"/>
+    </row>
+    <row r="39" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="91"/>
+      <c r="H39" s="80"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="102"/>
+    </row>
+    <row r="40" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="H40" s="80"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="102"/>
+    </row>
+    <row r="41" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="91"/>
+      <c r="H41" s="80"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="102"/>
+    </row>
+    <row r="42" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="79">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="91"/>
+      <c r="H42" s="80"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="102"/>
+    </row>
+    <row r="43" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="91"/>
+      <c r="H43" s="80"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="102"/>
+    </row>
+    <row r="44" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="79">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="91"/>
+      <c r="H44" s="80"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="102"/>
+    </row>
+    <row r="45" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="91"/>
+      <c r="H45" s="80"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="102"/>
+    </row>
+    <row r="46" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="79">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="91"/>
+      <c r="H46" s="80"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="102"/>
+    </row>
+    <row r="47" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="79">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="91"/>
+      <c r="H47" s="80"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="102"/>
+    </row>
+    <row r="48" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="79">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="91"/>
+      <c r="H48" s="80"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="102"/>
+    </row>
+    <row r="49" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="79">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="H49" s="80"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="102"/>
+    </row>
+    <row r="50" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="79">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="91"/>
+      <c r="H50" s="80"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="102"/>
+    </row>
+    <row r="51" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="79">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="91"/>
+      <c r="H51" s="80"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="102"/>
+    </row>
+    <row r="52" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="79">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="91"/>
+      <c r="H52" s="80"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="102"/>
+    </row>
+    <row r="53" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="79">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="91"/>
+      <c r="H53" s="80"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="102"/>
+    </row>
+    <row r="54" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="79">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="H54" s="80"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="102"/>
+    </row>
+    <row r="55" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="79">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" s="91"/>
+      <c r="H55" s="80"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="102"/>
+    </row>
+    <row r="56" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="79">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="91"/>
+      <c r="H56" s="80"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="102"/>
+    </row>
+    <row r="57" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="79">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="91"/>
+      <c r="H57" s="80"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="102"/>
+    </row>
+    <row r="58" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="79">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="91"/>
+      <c r="H58" s="80"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="102"/>
+    </row>
+    <row r="59" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="79">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="91"/>
+      <c r="H59" s="80"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="102"/>
+    </row>
+    <row r="60" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="79">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="91"/>
+      <c r="H60" s="80"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="102"/>
+    </row>
+    <row r="61" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="79">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="91"/>
+      <c r="H61" s="80"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="102"/>
+    </row>
+    <row r="62" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="79">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="B62" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="H62" s="80"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="102"/>
+    </row>
+    <row r="63" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="79">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="91"/>
+      <c r="H63" s="80"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="102"/>
+    </row>
+    <row r="64" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="79">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="91"/>
+      <c r="H64" s="80"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="102"/>
+    </row>
+    <row r="65" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="79">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="91"/>
+      <c r="H65" s="80"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="102"/>
+    </row>
+    <row r="66" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
+        <f t="shared" ref="A66:A97" si="2">SUM(A65,1)</f>
+        <v>139</v>
+      </c>
+      <c r="B66" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" s="91"/>
+      <c r="H66" s="80"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="102"/>
+    </row>
+    <row r="67" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="79">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B67" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="91"/>
+      <c r="H67" s="80"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="102"/>
+    </row>
+    <row r="68" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="79">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C68" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="91"/>
+      <c r="H68" s="80"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="102"/>
+    </row>
+    <row r="69" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="79">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C69" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="91"/>
+      <c r="H69" s="80"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="102"/>
+    </row>
+    <row r="70" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="79">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B70" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="91"/>
+      <c r="H70" s="80"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="102"/>
+    </row>
+    <row r="71" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="79">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" s="91"/>
+      <c r="H71" s="80"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="102"/>
+    </row>
+    <row r="72" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="91"/>
+      <c r="H72" s="80"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="102"/>
+    </row>
+    <row r="73" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="79">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B73" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" s="91"/>
+      <c r="H73" s="80"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="102"/>
+    </row>
+    <row r="74" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="79">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B74" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="H74" s="80"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="102"/>
+    </row>
+    <row r="75" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="79">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B75" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" s="91"/>
+      <c r="H75" s="80"/>
+      <c r="J75" s="91"/>
+      <c r="K75" s="102"/>
+    </row>
+    <row r="76" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B76" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" s="91"/>
+      <c r="H76" s="80"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="102"/>
+    </row>
+    <row r="77" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="79">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D77" s="91"/>
+      <c r="H77" s="80"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="102"/>
+    </row>
+    <row r="78" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="79">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D78" s="91"/>
+      <c r="H78" s="80"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="102"/>
+    </row>
+    <row r="79" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="79">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B79" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="91"/>
+      <c r="H79" s="80"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="102"/>
+    </row>
+    <row r="80" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="79">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B80" s="88" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="91"/>
+      <c r="H80" s="80"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="102"/>
+    </row>
+    <row r="81" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="79">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B81" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="91"/>
+      <c r="H81" s="80"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="102"/>
+    </row>
+    <row r="82" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="79">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B82" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="D82" s="91"/>
+      <c r="H82" s="80"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="102"/>
+    </row>
+    <row r="83" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="79">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B83" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="D83" s="91"/>
+      <c r="H83" s="80"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="102"/>
+    </row>
+    <row r="84" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="79">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B84" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="D84" s="91"/>
+      <c r="H84" s="80"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="102"/>
+    </row>
+    <row r="85" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="79">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B85" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" s="91"/>
+      <c r="H85" s="80"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="102"/>
+    </row>
+    <row r="86" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="79">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B86" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="91"/>
+      <c r="H86" s="80"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="102"/>
+    </row>
+    <row r="87" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="79">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B87" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="C87" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" s="91"/>
+      <c r="H87" s="80"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="102"/>
+    </row>
+    <row r="88" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="79">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B88" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" s="91"/>
+      <c r="H88" s="80"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="102"/>
+    </row>
+    <row r="89" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="79">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B89" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" s="91"/>
+      <c r="H89" s="80"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="102"/>
+    </row>
+    <row r="90" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="79">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B90" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D90" s="91"/>
+      <c r="H90" s="80"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="102"/>
+    </row>
+    <row r="91" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="79">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B91" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D91" s="91"/>
+      <c r="H91" s="80"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="102"/>
+    </row>
+    <row r="92" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="79">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B92" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D92" s="91"/>
+      <c r="H92" s="80"/>
+      <c r="J92" s="91"/>
+      <c r="K92" s="102"/>
+    </row>
+    <row r="93" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="79">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B93" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" s="91"/>
+      <c r="H93" s="80"/>
+      <c r="J93" s="91"/>
+      <c r="K93" s="102"/>
+    </row>
+    <row r="94" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="79">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B94" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" s="91"/>
+      <c r="H94" s="80"/>
+      <c r="J94" s="91"/>
+      <c r="K94" s="102"/>
+    </row>
+    <row r="95" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="79">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B95" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" s="91"/>
+      <c r="H95" s="80"/>
+      <c r="J95" s="91"/>
+      <c r="K95" s="102"/>
+    </row>
+    <row r="96" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="79">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B96" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D96" s="91"/>
+      <c r="H96" s="80"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="102"/>
+    </row>
+    <row r="97" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="79">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B97" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D97" s="91"/>
+      <c r="H97" s="80"/>
+      <c r="J97" s="91"/>
+      <c r="K97" s="102"/>
+    </row>
+    <row r="98" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="79">
+        <f t="shared" ref="A98:A108" si="3">SUM(A97,1)</f>
+        <v>171</v>
+      </c>
+      <c r="B98" s="81" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" s="91"/>
+      <c r="H98" s="80"/>
+      <c r="J98" s="91"/>
+      <c r="K98" s="102"/>
+    </row>
+    <row r="99" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="79">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="B99" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D99" s="91"/>
+      <c r="H99" s="80"/>
+      <c r="J99" s="91"/>
+      <c r="K99" s="102"/>
+    </row>
+    <row r="100" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="79">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="B100" s="81" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" s="91"/>
+      <c r="H100" s="80"/>
+      <c r="J100" s="91"/>
+      <c r="K100" s="102"/>
+    </row>
+    <row r="101" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="79">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="B101" s="81" t="s">
+        <v>380</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D101" s="91"/>
+      <c r="H101" s="80"/>
+      <c r="J101" s="91"/>
+      <c r="K101" s="102"/>
+    </row>
+    <row r="102" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="79">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="B102" s="81" t="s">
+        <v>382</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D102" s="91"/>
+      <c r="H102" s="80"/>
+      <c r="J102" s="91"/>
+      <c r="K102" s="102"/>
+    </row>
+    <row r="103" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A103" s="79">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="B103" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D103" s="91"/>
+      <c r="H103" s="80"/>
+      <c r="J103" s="91"/>
+      <c r="K103" s="102"/>
+    </row>
+    <row r="104" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="79">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+      <c r="B104" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" s="91"/>
+      <c r="H104" s="80"/>
+      <c r="J104" s="91"/>
+      <c r="K104" s="102"/>
+    </row>
+    <row r="105" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="79">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="B105" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" s="91"/>
+      <c r="H105" s="80"/>
+      <c r="J105" s="91"/>
+      <c r="K105" s="102"/>
+    </row>
+    <row r="106" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="79">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="B106" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="C106" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="D106" s="91"/>
+      <c r="H106" s="80"/>
+      <c r="J106" s="91"/>
+      <c r="K106" s="102"/>
+    </row>
+    <row r="107" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="79">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="B107" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C107" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="D107" s="91"/>
+      <c r="H107" s="80"/>
+      <c r="J107" s="91"/>
+      <c r="K107" s="102"/>
+    </row>
+    <row r="108" spans="1:11" s="78" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="79">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="B108" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="C108" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="D108" s="91"/>
+      <c r="H108" s="80"/>
+      <c r="J108" s="91"/>
+      <c r="K108" s="102"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -8717,10 +10881,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
